--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
   </si>
   <si>
     <t xml:space="preserve">shop_fish</t>
@@ -269,7 +272,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3"/>
     </row>
@@ -278,7 +281,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4"/>
     </row>
@@ -287,7 +290,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5"/>
     </row>
@@ -296,7 +299,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6"/>
     </row>
@@ -305,7 +308,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7"/>
     </row>
@@ -314,7 +317,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8"/>
     </row>
@@ -323,7 +326,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9"/>
     </row>
@@ -332,7 +335,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10"/>
     </row>
@@ -341,7 +344,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11"/>
     </row>
@@ -350,7 +353,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12"/>
     </row>
@@ -359,7 +362,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13"/>
     </row>
@@ -368,7 +371,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14"/>
     </row>
@@ -377,7 +380,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15"/>
     </row>
@@ -386,7 +389,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16"/>
     </row>
@@ -395,7 +398,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17"/>
     </row>
@@ -404,7 +407,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18"/>
     </row>
@@ -413,7 +416,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19"/>
     </row>
@@ -422,7 +425,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20"/>
     </row>
@@ -431,7 +434,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21"/>
     </row>
@@ -440,7 +443,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22"/>
     </row>
@@ -449,7 +452,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23"/>
     </row>
@@ -458,7 +461,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24"/>
     </row>
@@ -467,7 +470,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25"/>
     </row>
@@ -476,7 +479,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26"/>
     </row>
@@ -485,7 +488,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27"/>
     </row>
@@ -494,7 +497,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28"/>
     </row>
@@ -503,7 +506,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29"/>
     </row>
@@ -512,7 +515,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30"/>
     </row>
@@ -521,7 +524,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31"/>
     </row>
@@ -530,7 +533,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32"/>
     </row>
@@ -539,7 +542,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33"/>
     </row>
@@ -548,7 +551,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34"/>
     </row>
@@ -557,7 +560,7 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35"/>
     </row>
@@ -566,7 +569,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C36"/>
     </row>
@@ -575,7 +578,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37"/>
     </row>
@@ -584,7 +587,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38"/>
     </row>
@@ -593,7 +596,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39"/>
     </row>
@@ -602,7 +605,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40"/>
     </row>
@@ -611,7 +614,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C41"/>
     </row>
@@ -623,6 +626,15 @@
         <v>55</v>
       </c>
       <c r="C42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,157 +29,160 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 14.1</t>
@@ -569,7 +572,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C36"/>
     </row>
@@ -623,7 +626,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42"/>
     </row>
@@ -632,7 +635,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43"/>
     </row>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
   </si>
   <si>
     <t xml:space="preserve">c_water</t>
@@ -275,7 +278,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3"/>
     </row>
@@ -284,7 +287,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4"/>
     </row>
@@ -293,7 +296,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5"/>
     </row>
@@ -302,7 +305,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6"/>
     </row>
@@ -311,7 +314,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7"/>
     </row>
@@ -320,7 +323,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8"/>
     </row>
@@ -329,7 +332,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9"/>
     </row>
@@ -338,7 +341,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10"/>
     </row>
@@ -347,7 +350,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11"/>
     </row>
@@ -356,7 +359,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12"/>
     </row>
@@ -365,7 +368,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C13"/>
     </row>
@@ -374,7 +377,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14"/>
     </row>
@@ -383,7 +386,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15"/>
     </row>
@@ -401,7 +404,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C17"/>
     </row>
@@ -410,7 +413,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18"/>
     </row>
@@ -419,7 +422,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19"/>
     </row>
@@ -428,7 +431,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20"/>
     </row>
@@ -437,7 +440,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21"/>
     </row>
@@ -446,7 +449,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22"/>
     </row>
@@ -455,7 +458,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C23"/>
     </row>
@@ -464,7 +467,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C24"/>
     </row>
@@ -473,7 +476,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C25"/>
     </row>
@@ -482,7 +485,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C26"/>
     </row>
@@ -491,7 +494,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27"/>
     </row>
@@ -500,7 +503,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C28"/>
     </row>
@@ -509,7 +512,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C29"/>
     </row>
@@ -518,7 +521,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30"/>
     </row>
@@ -527,7 +530,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31"/>
     </row>
@@ -536,7 +539,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32"/>
     </row>
@@ -545,7 +548,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33"/>
     </row>
@@ -554,25 +557,25 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C36"/>
     </row>
@@ -581,7 +584,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C37"/>
     </row>
@@ -590,7 +593,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38"/>
     </row>
@@ -599,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39"/>
     </row>
@@ -608,7 +611,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40"/>
     </row>
@@ -617,7 +620,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41"/>
     </row>
@@ -626,7 +629,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C42"/>
     </row>
@@ -638,6 +641,15 @@
         <v>57</v>
       </c>
       <c r="C43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,145 +29,148 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.9</t>
@@ -368,7 +371,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C13"/>
     </row>
@@ -395,7 +398,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16"/>
     </row>
@@ -404,7 +407,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17"/>
     </row>
@@ -467,7 +470,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24"/>
     </row>
@@ -485,7 +488,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26"/>
     </row>
@@ -512,7 +515,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29"/>
     </row>
@@ -584,7 +587,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37"/>
     </row>
@@ -638,7 +641,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43"/>
     </row>
@@ -647,7 +650,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44"/>
     </row>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_randomFish</t>
   </si>
   <si>
     <t xml:space="preserve">c_undead</t>
@@ -281,7 +284,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3"/>
     </row>
@@ -290,7 +293,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4"/>
     </row>
@@ -299,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5"/>
     </row>
@@ -308,7 +311,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6"/>
     </row>
@@ -317,7 +320,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7"/>
     </row>
@@ -326,7 +329,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8"/>
     </row>
@@ -335,7 +338,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9"/>
     </row>
@@ -344,7 +347,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10"/>
     </row>
@@ -353,7 +356,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11"/>
     </row>
@@ -362,7 +365,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12"/>
     </row>
@@ -371,7 +374,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13"/>
     </row>
@@ -380,7 +383,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14"/>
     </row>
@@ -389,7 +392,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C15"/>
     </row>
@@ -398,7 +401,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16"/>
     </row>
@@ -416,7 +419,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C18"/>
     </row>
@@ -425,7 +428,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19"/>
     </row>
@@ -434,7 +437,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20"/>
     </row>
@@ -443,7 +446,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21"/>
     </row>
@@ -452,7 +455,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22"/>
     </row>
@@ -461,7 +464,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23"/>
     </row>
@@ -470,7 +473,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24"/>
     </row>
@@ -479,7 +482,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C25"/>
     </row>
@@ -488,7 +491,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C26"/>
     </row>
@@ -497,7 +500,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C27"/>
     </row>
@@ -506,7 +509,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28"/>
     </row>
@@ -515,7 +518,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C29"/>
     </row>
@@ -524,7 +527,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C30"/>
     </row>
@@ -533,7 +536,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31"/>
     </row>
@@ -542,7 +545,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32"/>
     </row>
@@ -551,7 +554,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33"/>
     </row>
@@ -560,7 +563,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34"/>
     </row>
@@ -569,25 +572,25 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C37"/>
     </row>
@@ -596,7 +599,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C38"/>
     </row>
@@ -605,7 +608,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39"/>
     </row>
@@ -614,7 +617,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40"/>
     </row>
@@ -623,7 +626,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41"/>
     </row>
@@ -632,7 +635,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42"/>
     </row>
@@ -641,7 +644,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C43"/>
     </row>
@@ -653,6 +656,15 @@
         <v>59</v>
       </c>
       <c r="C44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,151 +29,154 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_randomFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_randomFish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.9</t>
@@ -392,7 +395,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C15"/>
     </row>
@@ -410,7 +413,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17"/>
     </row>
@@ -419,7 +422,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18"/>
     </row>
@@ -482,7 +485,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25"/>
     </row>
@@ -500,7 +503,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27"/>
     </row>
@@ -527,7 +530,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30"/>
     </row>
@@ -599,7 +602,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38"/>
     </row>
@@ -653,7 +656,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44"/>
     </row>
@@ -662,7 +665,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45"/>
     </row>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">c_randomFish</t>
   </si>
   <si>
+    <t xml:space="preserve">c_human</t>
+  </si>
+  <si>
     <t xml:space="preserve">c_undead</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darksoup</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -287,7 +293,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3"/>
     </row>
@@ -296,7 +302,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4"/>
     </row>
@@ -305,7 +311,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5"/>
     </row>
@@ -314,7 +320,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6"/>
     </row>
@@ -323,7 +329,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7"/>
     </row>
@@ -332,7 +338,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8"/>
     </row>
@@ -341,7 +347,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9"/>
     </row>
@@ -350,7 +356,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10"/>
     </row>
@@ -359,7 +365,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11"/>
     </row>
@@ -368,7 +374,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12"/>
     </row>
@@ -377,7 +383,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13"/>
     </row>
@@ -386,7 +392,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14"/>
     </row>
@@ -395,7 +401,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15"/>
     </row>
@@ -404,7 +410,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C16"/>
     </row>
@@ -413,7 +419,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17"/>
     </row>
@@ -422,7 +428,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18"/>
     </row>
@@ -431,7 +437,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C19"/>
     </row>
@@ -449,7 +455,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21"/>
     </row>
@@ -458,7 +464,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22"/>
     </row>
@@ -467,7 +473,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23"/>
     </row>
@@ -476,7 +482,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24"/>
     </row>
@@ -485,7 +491,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C25"/>
     </row>
@@ -494,7 +500,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C26"/>
     </row>
@@ -503,7 +509,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C27"/>
     </row>
@@ -512,7 +518,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C28"/>
     </row>
@@ -521,7 +527,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29"/>
     </row>
@@ -530,7 +536,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C30"/>
     </row>
@@ -539,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C31"/>
     </row>
@@ -548,7 +554,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32"/>
     </row>
@@ -557,7 +563,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33"/>
     </row>
@@ -566,7 +572,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34"/>
     </row>
@@ -575,7 +581,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35"/>
     </row>
@@ -584,25 +590,25 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C38"/>
     </row>
@@ -611,7 +617,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C39"/>
     </row>
@@ -620,7 +626,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40"/>
     </row>
@@ -629,7 +635,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41"/>
     </row>
@@ -638,7 +644,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42"/>
     </row>
@@ -647,7 +653,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43"/>
     </row>
@@ -656,7 +662,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C44"/>
     </row>
@@ -665,9 +671,27 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,160 +29,163 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_randomFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darksoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_randomFish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darksoup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.9</t>
@@ -410,7 +413,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C16"/>
     </row>
@@ -428,7 +431,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18"/>
     </row>
@@ -437,7 +440,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19"/>
     </row>
@@ -500,7 +503,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26"/>
     </row>
@@ -518,7 +521,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28"/>
     </row>
@@ -545,7 +548,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31"/>
     </row>
@@ -617,7 +620,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39"/>
     </row>
@@ -671,7 +674,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45"/>
     </row>
@@ -680,7 +683,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46"/>
     </row>
@@ -689,7 +692,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C47"/>
     </row>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">chara</t>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon_forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_machine</t>
   </si>
   <si>
     <t xml:space="preserve">c_sand</t>
@@ -296,7 +302,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3"/>
     </row>
@@ -305,7 +311,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4"/>
     </row>
@@ -314,7 +320,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5"/>
     </row>
@@ -323,7 +329,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6"/>
     </row>
@@ -332,7 +338,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7"/>
     </row>
@@ -341,7 +347,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8"/>
     </row>
@@ -350,7 +356,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9"/>
     </row>
@@ -359,7 +365,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10"/>
     </row>
@@ -368,7 +374,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11"/>
     </row>
@@ -377,7 +383,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12"/>
     </row>
@@ -386,7 +392,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C13"/>
     </row>
@@ -395,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C14"/>
     </row>
@@ -404,7 +410,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15"/>
     </row>
@@ -413,7 +419,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16"/>
     </row>
@@ -422,7 +428,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C17"/>
     </row>
@@ -431,7 +437,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18"/>
     </row>
@@ -440,7 +446,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19"/>
     </row>
@@ -449,7 +455,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C20"/>
     </row>
@@ -458,7 +464,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C21"/>
     </row>
@@ -467,7 +473,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22"/>
     </row>
@@ -476,7 +482,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23"/>
     </row>
@@ -485,7 +491,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24"/>
     </row>
@@ -494,7 +500,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25"/>
     </row>
@@ -503,7 +509,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C26"/>
     </row>
@@ -512,7 +518,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27"/>
     </row>
@@ -521,7 +527,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28"/>
     </row>
@@ -530,7 +536,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29"/>
     </row>
@@ -539,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C30"/>
     </row>
@@ -548,7 +554,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C31"/>
     </row>
@@ -557,7 +563,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32"/>
     </row>
@@ -566,7 +572,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C33"/>
     </row>
@@ -575,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34"/>
     </row>
@@ -584,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35"/>
     </row>
@@ -593,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36"/>
     </row>
@@ -602,34 +608,34 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40"/>
     </row>
@@ -638,7 +644,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C41"/>
     </row>
@@ -647,7 +653,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42"/>
     </row>
@@ -656,7 +662,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43"/>
     </row>
@@ -665,7 +671,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44"/>
     </row>
@@ -674,7 +680,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C45"/>
     </row>
@@ -683,7 +689,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C46"/>
     </row>
@@ -692,9 +698,27 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,160 +29,166 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon_forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_randomFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darksoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wreck_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon_forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_randomFish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darksoup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.120</t>
@@ -302,7 +308,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3"/>
     </row>
@@ -311,7 +317,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4"/>
     </row>
@@ -320,7 +326,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5"/>
     </row>
@@ -329,7 +335,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6"/>
     </row>
@@ -338,7 +344,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7"/>
     </row>
@@ -347,7 +353,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8"/>
     </row>
@@ -356,7 +362,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9"/>
     </row>
@@ -365,7 +371,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10"/>
     </row>
@@ -374,7 +380,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11"/>
     </row>
@@ -383,7 +389,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12"/>
     </row>
@@ -392,7 +398,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C13"/>
     </row>
@@ -401,7 +407,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C14"/>
     </row>
@@ -410,7 +416,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15"/>
     </row>
@@ -419,7 +425,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16"/>
     </row>
@@ -428,7 +434,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17"/>
     </row>
@@ -437,7 +443,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18"/>
     </row>
@@ -446,7 +452,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19"/>
     </row>
@@ -455,7 +461,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20"/>
     </row>
@@ -464,7 +470,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21"/>
     </row>
@@ -473,7 +479,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22"/>
     </row>
@@ -482,7 +488,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23"/>
     </row>
@@ -491,7 +497,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24"/>
     </row>
@@ -500,7 +506,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25"/>
     </row>
@@ -509,7 +515,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26"/>
     </row>
@@ -518,7 +524,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27"/>
     </row>
@@ -527,7 +533,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28"/>
     </row>
@@ -536,7 +542,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29"/>
     </row>
@@ -545,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30"/>
     </row>
@@ -554,7 +560,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31"/>
     </row>
@@ -563,7 +569,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32"/>
     </row>
@@ -572,7 +578,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33"/>
     </row>
@@ -581,7 +587,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34"/>
     </row>
@@ -590,7 +596,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35"/>
     </row>
@@ -599,7 +605,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36"/>
     </row>
@@ -608,7 +614,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37"/>
     </row>
@@ -617,7 +623,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38"/>
     </row>
@@ -626,7 +632,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39"/>
     </row>
@@ -635,7 +641,7 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40"/>
     </row>
@@ -644,7 +650,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41"/>
     </row>
@@ -653,7 +659,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42"/>
     </row>
@@ -662,7 +668,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43"/>
     </row>
@@ -671,7 +677,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44"/>
     </row>
@@ -680,7 +686,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45"/>
     </row>
@@ -689,7 +695,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46"/>
     </row>
@@ -698,7 +704,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47"/>
     </row>
@@ -707,7 +713,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C48"/>
     </row>
@@ -716,9 +722,18 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/SpawnList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,199 +29,202 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_readFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_wilds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_dungeon_forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_randomFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_generalExotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_booze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darksoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wreck_junk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.229 Patch 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_readFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_wilds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_dungeon_forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_randomFish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_undead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_pawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_generalExotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_booze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_souvenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_blackmarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darksoup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wreck_junk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C50"/>
     </row>
